--- a/Form2/create-scripts.xlsx
+++ b/Form2/create-scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Documents/GitHub/ferc-xendr-rulesets/Form2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE2B771-DAF2-1C43-A680-A7F0E209DCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FC56B3-C50F-3241-B043-3D24C90ED9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" activeTab="3" xr2:uid="{DE224451-D285-8045-83E0-C4ECEDBDF605}"/>
+    <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{DE224451-D285-8045-83E0-C4ECEDBDF605}"/>
   </bookViews>
   <sheets>
     <sheet name="CompileTemplates" sheetId="1" r:id="rId1"/>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81749273-E534-8A4D-A563-BF32E513E800}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E93"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4520,7 +4520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24069461-5FFD-A14C-AFB5-525E846A5D7E}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D26"/>
     </sheetView>
   </sheetViews>
